--- a/data/trans_orig/P70C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD27B2B8-9F82-4BA9-B741-8A1DC430706E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC35A0C7-75CF-4C14-A380-49B2CEBF4ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{367ABB5B-832F-44A3-8AE2-4EC9CE827834}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A2805EF-B7C9-47CF-8E58-171A8C5F763A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="359">
   <si>
     <t>Población según si le es dificil cumplir con las obligaciones familiares debido al tiempo que paso en el trabajo en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>47,52%</t>
   </si>
   <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
   </si>
   <si>
     <t>66,1%</t>
   </si>
   <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
   </si>
   <si>
     <t>57,1%</t>
   </si>
   <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,28 +104,28 @@
     <t>28,58%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
   </si>
   <si>
     <t>23,04%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
@@ -134,949 +134,934 @@
     <t>14,05%</t>
   </si>
   <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>8,2%</t>
+    <t>8,23%</t>
   </si>
   <si>
     <t>10,39%</t>
@@ -1085,46 +1070,46 @@
     <t>5,28%</t>
   </si>
   <si>
-    <t>4,16%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>5,12%</t>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>2,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1539,7 +1524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C5DB5E-4FE7-436E-B77D-3BF5F490BB5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2ABB3-35EC-4C4C-99A0-E12D07301C01}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2229,10 +2214,10 @@
         <v>100</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -2241,13 +2226,13 @@
         <v>22735</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M15" s="7">
         <v>29</v>
@@ -2256,13 +2241,13 @@
         <v>38762</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2262,13 @@
         <v>7935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2292,13 +2277,13 @@
         <v>5419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2307,13 +2292,13 @@
         <v>13354</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,7 +2354,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2381,13 +2366,13 @@
         <v>233345</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>238</v>
@@ -2396,13 +2381,13 @@
         <v>163412</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>466</v>
@@ -2411,13 +2396,13 @@
         <v>396756</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,13 +2417,13 @@
         <v>108288</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>154</v>
@@ -2447,13 +2432,13 @@
         <v>99710</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>267</v>
@@ -2462,13 +2447,13 @@
         <v>207998</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,10 +2471,10 @@
         <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -2498,13 +2483,13 @@
         <v>31505</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -2513,13 +2498,13 @@
         <v>72831</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2519,13 @@
         <v>56608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>56</v>
@@ -2549,13 +2534,13 @@
         <v>41677</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>107</v>
@@ -2564,13 +2549,13 @@
         <v>98285</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2570,13 @@
         <v>24635</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -2603,10 +2588,10 @@
         <v>52</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -2615,13 +2600,13 @@
         <v>55322</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2621,13 @@
         <v>15426</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -2651,13 +2636,13 @@
         <v>9772</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
@@ -2666,13 +2651,13 @@
         <v>25198</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,7 +2713,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2740,13 +2725,13 @@
         <v>321986</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>349</v>
@@ -2755,13 +2740,13 @@
         <v>232718</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>614</v>
@@ -2770,13 +2755,13 @@
         <v>554704</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,13 +2776,13 @@
         <v>127108</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>162</v>
@@ -2806,13 +2791,13 @@
         <v>95843</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>296</v>
@@ -2821,13 +2806,13 @@
         <v>222951</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2827,13 @@
         <v>36550</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>72</v>
@@ -2857,13 +2842,13 @@
         <v>46229</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>108</v>
@@ -2872,7 +2857,7 @@
         <v>82779</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>193</v>
@@ -2911,10 +2896,10 @@
         <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>101</v>
@@ -2923,13 +2908,13 @@
         <v>80815</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2929,13 @@
         <v>32294</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -2959,13 +2944,13 @@
         <v>29416</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -3031,7 +3016,7 @@
         <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,7 +3072,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3099,13 +3084,13 @@
         <v>150570</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>180</v>
@@ -3114,13 +3099,13 @@
         <v>104032</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>351</v>
@@ -3129,13 +3114,13 @@
         <v>254602</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3135,13 @@
         <v>84093</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H33" s="7">
         <v>111</v>
@@ -3165,13 +3150,13 @@
         <v>61524</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M33" s="7">
         <v>204</v>
@@ -3180,13 +3165,13 @@
         <v>145617</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,10 +3186,10 @@
         <v>27724</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>239</v>
@@ -3219,10 +3204,10 @@
         <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>58</v>
@@ -3231,13 +3216,13 @@
         <v>46361</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3237,13 @@
         <v>25724</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -3267,13 +3252,13 @@
         <v>22887</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>67</v>
@@ -3282,13 +3267,13 @@
         <v>48611</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,10 +3291,10 @@
         <v>55</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -3318,13 +3303,13 @@
         <v>10901</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>40</v>
@@ -3333,13 +3318,13 @@
         <v>30609</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,13 +3339,13 @@
         <v>11501</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -3369,13 +3354,13 @@
         <v>7840</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>24</v>
@@ -3384,13 +3369,13 @@
         <v>19342</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,7 +3431,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3458,13 +3443,13 @@
         <v>13043</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H39" s="7">
         <v>18</v>
@@ -3473,13 +3458,13 @@
         <v>9754</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M39" s="7">
         <v>36</v>
@@ -3488,13 +3473,13 @@
         <v>22796</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3494,13 @@
         <v>4228</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -3524,13 +3509,13 @@
         <v>4363</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M40" s="7">
         <v>18</v>
@@ -3539,13 +3524,13 @@
         <v>8590</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,7 +3551,7 @@
         <v>59</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3575,13 +3560,13 @@
         <v>1013</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3590,13 +3575,13 @@
         <v>1013</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3596,13 @@
         <v>1763</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3626,13 +3611,13 @@
         <v>1761</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
@@ -3641,13 +3626,13 @@
         <v>3523</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3647,13 @@
         <v>740</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -3677,13 +3662,13 @@
         <v>1054</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>304</v>
+        <v>160</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -3692,13 +3677,13 @@
         <v>1795</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,7 +3704,7 @@
         <v>59</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -3728,13 +3713,13 @@
         <v>1086</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3743,13 +3728,13 @@
         <v>1086</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,13 +3802,13 @@
         <v>935672</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H46" s="7">
         <v>972</v>
@@ -3832,13 +3817,13 @@
         <v>743712</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M46" s="7">
         <v>1798</v>
@@ -3847,13 +3832,13 @@
         <v>1679384</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3853,13 @@
         <v>425697</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H47" s="7">
         <v>523</v>
@@ -3883,13 +3868,13 @@
         <v>352091</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M47" s="7">
         <v>944</v>
@@ -3898,13 +3883,13 @@
         <v>777788</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3904,13 @@
         <v>152667</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H48" s="7">
         <v>174</v>
@@ -3934,13 +3919,13 @@
         <v>125405</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M48" s="7">
         <v>313</v>
@@ -3949,13 +3934,13 @@
         <v>278072</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>108</v>
+        <v>333</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3955,13 @@
         <v>172515</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="H49" s="7">
         <v>184</v>
@@ -3985,13 +3970,13 @@
         <v>135099</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M49" s="7">
         <v>336</v>
@@ -4000,13 +3985,13 @@
         <v>307614</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4006,13 @@
         <v>96911</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>199</v>
+        <v>345</v>
       </c>
       <c r="H50" s="7">
         <v>130</v>
@@ -4036,13 +4021,13 @@
         <v>102250</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M50" s="7">
         <v>218</v>
@@ -4051,13 +4036,13 @@
         <v>199160</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4057,13 @@
         <v>53049</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H51" s="7">
         <v>54</v>
@@ -4087,13 +4072,13 @@
         <v>44959</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>359</v>
+        <v>53</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="M51" s="7">
         <v>104</v>
@@ -4102,13 +4087,13 @@
         <v>98008</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>362</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,7 +4149,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC35A0C7-75CF-4C14-A380-49B2CEBF4ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BA4A4E-468A-40F0-B6D0-5F5D6FD5F827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A2805EF-B7C9-47CF-8E58-171A8C5F763A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3046249B-B508-449A-8F4F-F1D0A0895045}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1524,7 +1524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD2ABB3-35EC-4C4C-99A0-E12D07301C01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16321B07-6DC1-40B1-B59A-0BFA18C7FB03}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95BA4A4E-468A-40F0-B6D0-5F5D6FD5F827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A214F8F-BDE8-4390-8CAE-7D17F1B3B059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3046249B-B508-449A-8F4F-F1D0A0895045}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{011739F9-C70A-4880-85C2-7EE520B522DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="364">
   <si>
     <t>Población según si le es dificil cumplir con las obligaciones familiares debido al tiempo que paso en el trabajo en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>47,52%</t>
   </si>
   <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
   </si>
   <si>
     <t>66,1%</t>
   </si>
   <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
   </si>
   <si>
     <t>57,1%</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,28 +104,28 @@
     <t>28,58%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
   </si>
   <si>
     <t>23,04%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
@@ -134,28 +134,28 @@
     <t>14,05%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
   </si>
   <si>
     <t>Varias veces al mes</t>
@@ -167,22 +167,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,96%</t>
+    <t>20,17%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>10,65%</t>
+    <t>11,34%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
   <si>
     <t>Varias veces a la semana</t>
@@ -191,7 +191,7 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>14,94%</t>
+    <t>16,22%</t>
   </si>
   <si>
     <t>8,14%</t>
@@ -200,16 +200,16 @@
     <t>2,17%</t>
   </si>
   <si>
-    <t>21,96%</t>
+    <t>22,47%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -233,835 +233,850 @@
     <t>49,59%</t>
   </si>
   <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
   </si>
   <si>
     <t>53,23%</t>
   </si>
   <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
   </si>
   <si>
     <t>51,33%</t>
   </si>
   <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>22,31%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>8,62%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
   </si>
   <si>
     <t>11,96%</t>
   </si>
   <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>9,3%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>9,21%</t>
   </si>
   <si>
-    <t>8,23%</t>
+    <t>8,2%</t>
   </si>
   <si>
     <t>10,39%</t>
@@ -1070,46 +1085,46 @@
     <t>5,28%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>5,12%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
+    <t>2,23%</t>
+  </si>
+  <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1524,7 +1539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16321B07-6DC1-40B1-B59A-0BFA18C7FB03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB9D97D-E290-444F-BA39-59BF6F94E1C8}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2214,10 +2229,10 @@
         <v>100</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
@@ -2226,13 +2241,13 @@
         <v>22735</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M15" s="7">
         <v>29</v>
@@ -2241,13 +2256,13 @@
         <v>38762</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,13 +2277,13 @@
         <v>7935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2277,13 +2292,13 @@
         <v>5419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2292,13 +2307,13 @@
         <v>13354</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,7 +2369,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2366,13 +2381,13 @@
         <v>233345</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>238</v>
@@ -2381,13 +2396,13 @@
         <v>163412</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>466</v>
@@ -2396,13 +2411,13 @@
         <v>396756</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,13 +2432,13 @@
         <v>108288</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>154</v>
@@ -2432,13 +2447,13 @@
         <v>99710</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>267</v>
@@ -2447,13 +2462,13 @@
         <v>207998</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,10 +2486,10 @@
         <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -2483,13 +2498,13 @@
         <v>31505</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
@@ -2498,13 +2513,13 @@
         <v>72831</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2534,13 @@
         <v>56608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>56</v>
@@ -2534,13 +2549,13 @@
         <v>41677</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>107</v>
@@ -2549,13 +2564,13 @@
         <v>98285</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2585,13 @@
         <v>24635</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -2588,10 +2603,10 @@
         <v>52</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -2600,13 +2615,13 @@
         <v>55322</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2636,13 @@
         <v>15426</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -2636,13 +2651,13 @@
         <v>9772</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
@@ -2651,13 +2666,13 @@
         <v>25198</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,7 +2728,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2725,13 +2740,13 @@
         <v>321986</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>349</v>
@@ -2740,13 +2755,13 @@
         <v>232718</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>614</v>
@@ -2755,13 +2770,13 @@
         <v>554704</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2791,13 @@
         <v>127108</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>162</v>
@@ -2791,13 +2806,13 @@
         <v>95843</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>296</v>
@@ -2806,13 +2821,13 @@
         <v>222951</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2842,13 @@
         <v>36550</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>72</v>
@@ -2842,13 +2857,13 @@
         <v>46229</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>108</v>
@@ -2857,7 +2872,7 @@
         <v>82779</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>193</v>
@@ -2896,10 +2911,10 @@
         <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>101</v>
@@ -2908,13 +2923,13 @@
         <v>80815</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2944,13 @@
         <v>32294</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -2944,13 +2959,13 @@
         <v>29416</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
@@ -3016,7 +3031,7 @@
         <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,7 +3087,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3084,13 +3099,13 @@
         <v>150570</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>180</v>
@@ -3099,13 +3114,13 @@
         <v>104032</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>351</v>
@@ -3114,13 +3129,13 @@
         <v>254602</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3150,13 @@
         <v>84093</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H33" s="7">
         <v>111</v>
@@ -3150,13 +3165,13 @@
         <v>61524</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M33" s="7">
         <v>204</v>
@@ -3165,13 +3180,13 @@
         <v>145617</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,10 +3201,10 @@
         <v>27724</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>239</v>
@@ -3204,10 +3219,10 @@
         <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>58</v>
@@ -3216,13 +3231,13 @@
         <v>46361</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3252,13 @@
         <v>25724</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
@@ -3252,13 +3267,13 @@
         <v>22887</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>67</v>
@@ -3267,13 +3282,13 @@
         <v>48611</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,10 +3306,10 @@
         <v>55</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
@@ -3303,13 +3318,13 @@
         <v>10901</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>40</v>
@@ -3318,13 +3333,13 @@
         <v>30609</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3354,13 @@
         <v>11501</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
@@ -3354,13 +3369,13 @@
         <v>7840</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>24</v>
@@ -3369,13 +3384,13 @@
         <v>19342</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,7 +3446,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3443,13 +3458,13 @@
         <v>13043</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H39" s="7">
         <v>18</v>
@@ -3458,13 +3473,13 @@
         <v>9754</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M39" s="7">
         <v>36</v>
@@ -3473,13 +3488,13 @@
         <v>22796</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3509,13 @@
         <v>4228</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
@@ -3509,13 +3524,13 @@
         <v>4363</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M40" s="7">
         <v>18</v>
@@ -3524,13 +3539,13 @@
         <v>8590</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3566,7 @@
         <v>59</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3560,13 +3575,13 @@
         <v>1013</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3575,13 +3590,13 @@
         <v>1013</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3611,13 @@
         <v>1763</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3611,13 +3626,13 @@
         <v>1761</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
@@ -3626,13 +3641,13 @@
         <v>3523</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3662,13 @@
         <v>740</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -3662,13 +3677,13 @@
         <v>1054</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -3677,13 +3692,13 @@
         <v>1795</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3719,7 @@
         <v>59</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -3713,13 +3728,13 @@
         <v>1086</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -3728,13 +3743,13 @@
         <v>1086</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,13 +3817,13 @@
         <v>935672</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H46" s="7">
         <v>972</v>
@@ -3817,13 +3832,13 @@
         <v>743712</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M46" s="7">
         <v>1798</v>
@@ -3832,13 +3847,13 @@
         <v>1679384</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3868,13 @@
         <v>425697</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H47" s="7">
         <v>523</v>
@@ -3868,13 +3883,13 @@
         <v>352091</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M47" s="7">
         <v>944</v>
@@ -3883,13 +3898,13 @@
         <v>777788</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3919,13 @@
         <v>152667</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H48" s="7">
         <v>174</v>
@@ -3919,13 +3934,13 @@
         <v>125405</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M48" s="7">
         <v>313</v>
@@ -3934,13 +3949,13 @@
         <v>278072</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>333</v>
+        <v>108</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3970,13 @@
         <v>172515</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>241</v>
+        <v>341</v>
       </c>
       <c r="H49" s="7">
         <v>184</v>
@@ -3970,13 +3985,13 @@
         <v>135099</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M49" s="7">
         <v>336</v>
@@ -3985,13 +4000,13 @@
         <v>307614</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4021,13 @@
         <v>96911</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>345</v>
+        <v>199</v>
       </c>
       <c r="H50" s="7">
         <v>130</v>
@@ -4021,13 +4036,13 @@
         <v>102250</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M50" s="7">
         <v>218</v>
@@ -4036,13 +4051,13 @@
         <v>199160</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P50" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4072,13 @@
         <v>53049</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H51" s="7">
         <v>54</v>
@@ -4072,13 +4087,13 @@
         <v>44959</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>53</v>
+        <v>359</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="M51" s="7">
         <v>104</v>
@@ -4087,13 +4102,13 @@
         <v>98008</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>38</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,7 +4164,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A214F8F-BDE8-4390-8CAE-7D17F1B3B059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E91E41B-65D8-4F65-BE11-6F40D821FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{011739F9-C70A-4880-85C2-7EE520B522DE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{40CEED63-C45D-410A-AA56-6F2CBC3C765F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="365">
   <si>
     <t>Población según si le es dificil cumplir con las obligaciones familiares debido al tiempo que paso en el trabajo en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -65,1066 +65,1069 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca/ casi nunca</t>
   </si>
   <si>
-    <t>47,52%</t>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>Con menos frecuencia /raramente</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>Varias veces al mes</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
   </si>
   <si>
     <t>32,11%</t>
   </si>
   <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>Con menos frecuencia /raramente</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>Varias veces al año</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>Varias veces al mes</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1539,8 +1542,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB9D97D-E290-444F-BA39-59BF6F94E1C8}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A244F16E-CB68-4207-8272-742004B49F16}">
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1660,7 +1663,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>40947</v>
+        <v>43771</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1675,7 +1678,7 @@
         <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>60578</v>
+        <v>54703</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1690,7 +1693,7 @@
         <v>60</v>
       </c>
       <c r="N4" s="7">
-        <v>101525</v>
+        <v>98474</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1711,7 +1714,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>24622</v>
+        <v>23239</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1726,7 +1729,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>16342</v>
+        <v>13863</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1741,7 +1744,7 @@
         <v>25</v>
       </c>
       <c r="N5" s="7">
-        <v>40964</v>
+        <v>37102</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1762,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>12105</v>
+        <v>13221</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1777,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>4362</v>
+        <v>3659</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1792,7 +1795,7 @@
         <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>16467</v>
+        <v>16880</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1813,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>4984</v>
+        <v>5162</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1828,7 +1831,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>2911</v>
+        <v>2742</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1843,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>7895</v>
+        <v>7904</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1864,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>3506</v>
+        <v>3016</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1879,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>7458</v>
+        <v>6272</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>52</v>
@@ -1894,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>10964</v>
+        <v>9288</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>55</v>
@@ -1924,7 +1927,7 @@
         <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1939,7 +1942,7 @@
         <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -1954,7 +1957,7 @@
         <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,51 +1969,51 @@
         <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>86164</v>
+        <v>88409</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
       </c>
       <c r="I10" s="7">
-        <v>91651</v>
+        <v>81238</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
       </c>
       <c r="N10" s="7">
-        <v>177815</v>
+        <v>169647</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2019,46 +2022,46 @@
         <v>120</v>
       </c>
       <c r="D11" s="7">
-        <v>175782</v>
+        <v>176640</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>151</v>
       </c>
       <c r="I11" s="7">
-        <v>173220</v>
+        <v>216923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>271</v>
       </c>
       <c r="N11" s="7">
-        <v>349002</v>
+        <v>393563</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,46 +2073,46 @@
         <v>60</v>
       </c>
       <c r="D12" s="7">
-        <v>77357</v>
+        <v>73725</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>74310</v>
+        <v>66014</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>134</v>
       </c>
       <c r="N12" s="7">
-        <v>151667</v>
+        <v>139739</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,46 +2124,46 @@
         <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>34963</v>
+        <v>34420</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>23659</v>
+        <v>20835</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
       </c>
       <c r="N13" s="7">
-        <v>58622</v>
+        <v>55256</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,46 +2175,46 @@
         <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>42408</v>
+        <v>42407</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>26077</v>
+        <v>23587</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
       </c>
       <c r="N14" s="7">
-        <v>68485</v>
+        <v>65993</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,46 +2226,46 @@
         <v>9</v>
       </c>
       <c r="D15" s="7">
-        <v>16027</v>
+        <v>15446</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="7">
         <v>20</v>
       </c>
       <c r="I15" s="7">
-        <v>22735</v>
+        <v>20723</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M15" s="7">
         <v>29</v>
       </c>
       <c r="N15" s="7">
-        <v>38762</v>
+        <v>36169</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,46 +2277,46 @@
         <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>7935</v>
+        <v>7704</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>5419</v>
+        <v>4834</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>13354</v>
+        <v>12538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,51 +2328,51 @@
         <v>250</v>
       </c>
       <c r="D17" s="7">
-        <v>354472</v>
+        <v>350343</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>300</v>
       </c>
       <c r="I17" s="7">
-        <v>325419</v>
+        <v>352916</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>550</v>
       </c>
       <c r="N17" s="7">
-        <v>679891</v>
+        <v>703258</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2378,46 +2381,46 @@
         <v>228</v>
       </c>
       <c r="D18" s="7">
-        <v>233345</v>
+        <v>227540</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>238</v>
       </c>
       <c r="I18" s="7">
-        <v>163412</v>
+        <v>154872</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>466</v>
       </c>
       <c r="N18" s="7">
-        <v>396756</v>
+        <v>382412</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,46 +2432,46 @@
         <v>113</v>
       </c>
       <c r="D19" s="7">
-        <v>108288</v>
+        <v>101662</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>154</v>
       </c>
       <c r="I19" s="7">
-        <v>99710</v>
+        <v>91110</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>267</v>
       </c>
       <c r="N19" s="7">
-        <v>207998</v>
+        <v>192771</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,46 +2483,46 @@
         <v>42</v>
       </c>
       <c r="D20" s="7">
-        <v>41326</v>
+        <v>39954</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
       </c>
       <c r="I20" s="7">
-        <v>31505</v>
+        <v>28957</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>85</v>
       </c>
       <c r="N20" s="7">
-        <v>72831</v>
+        <v>68911</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,46 +2534,46 @@
         <v>51</v>
       </c>
       <c r="D21" s="7">
-        <v>56608</v>
+        <v>54360</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H21" s="7">
         <v>56</v>
       </c>
       <c r="I21" s="7">
-        <v>41677</v>
+        <v>38985</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M21" s="7">
         <v>107</v>
       </c>
       <c r="N21" s="7">
-        <v>98285</v>
+        <v>93345</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,46 +2585,46 @@
         <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>24635</v>
+        <v>24048</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
       </c>
       <c r="I22" s="7">
-        <v>30686</v>
+        <v>28171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
       </c>
       <c r="N22" s="7">
-        <v>55322</v>
+        <v>52219</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,46 +2636,46 @@
         <v>15</v>
       </c>
       <c r="D23" s="7">
-        <v>15426</v>
+        <v>14419</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
       </c>
       <c r="I23" s="7">
-        <v>9772</v>
+        <v>9037</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
       </c>
       <c r="N23" s="7">
-        <v>25198</v>
+        <v>23456</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,51 +2687,51 @@
         <v>473</v>
       </c>
       <c r="D24" s="7">
-        <v>479628</v>
+        <v>461983</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H24" s="7">
         <v>547</v>
       </c>
       <c r="I24" s="7">
-        <v>376762</v>
+        <v>351132</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M24" s="7">
         <v>1020</v>
       </c>
       <c r="N24" s="7">
-        <v>856390</v>
+        <v>813115</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2737,46 +2740,46 @@
         <v>265</v>
       </c>
       <c r="D25" s="7">
-        <v>321986</v>
+        <v>505177</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>349</v>
       </c>
       <c r="I25" s="7">
-        <v>232718</v>
+        <v>241382</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>614</v>
       </c>
       <c r="N25" s="7">
-        <v>554704</v>
+        <v>746559</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,46 +2791,46 @@
         <v>134</v>
       </c>
       <c r="D26" s="7">
-        <v>127108</v>
+        <v>121204</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>162</v>
       </c>
       <c r="I26" s="7">
-        <v>95843</v>
+        <v>87302</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>296</v>
       </c>
       <c r="N26" s="7">
-        <v>222951</v>
+        <v>208506</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,46 +2842,46 @@
         <v>36</v>
       </c>
       <c r="D27" s="7">
-        <v>36550</v>
+        <v>34072</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H27" s="7">
         <v>72</v>
       </c>
       <c r="I27" s="7">
-        <v>46229</v>
+        <v>42099</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M27" s="7">
         <v>108</v>
       </c>
       <c r="N27" s="7">
-        <v>82779</v>
+        <v>76172</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,46 +2893,46 @@
         <v>41</v>
       </c>
       <c r="D28" s="7">
-        <v>41027</v>
+        <v>39152</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
       </c>
       <c r="I28" s="7">
-        <v>39787</v>
+        <v>36389</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M28" s="7">
         <v>101</v>
       </c>
       <c r="N28" s="7">
-        <v>80815</v>
+        <v>75542</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,46 +2944,46 @@
         <v>30</v>
       </c>
       <c r="D29" s="7">
-        <v>32294</v>
+        <v>30844</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
       </c>
       <c r="I29" s="7">
-        <v>29416</v>
+        <v>27095</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>74</v>
       </c>
       <c r="N29" s="7">
-        <v>61709</v>
+        <v>57939</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,46 +2995,46 @@
         <v>16</v>
       </c>
       <c r="D30" s="7">
-        <v>18187</v>
+        <v>17208</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
       </c>
       <c r="I30" s="7">
-        <v>20841</v>
+        <v>17862</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>38</v>
       </c>
       <c r="N30" s="7">
-        <v>39029</v>
+        <v>35070</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,51 +3046,51 @@
         <v>522</v>
       </c>
       <c r="D31" s="7">
-        <v>577152</v>
+        <v>747657</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H31" s="7">
         <v>709</v>
       </c>
       <c r="I31" s="7">
-        <v>464835</v>
+        <v>452130</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M31" s="7">
         <v>1231</v>
       </c>
       <c r="N31" s="7">
-        <v>1041987</v>
+        <v>1199787</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3096,46 +3099,46 @@
         <v>171</v>
       </c>
       <c r="D32" s="7">
-        <v>150570</v>
+        <v>144051</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>180</v>
       </c>
       <c r="I32" s="7">
-        <v>104032</v>
+        <v>97048</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>351</v>
       </c>
       <c r="N32" s="7">
-        <v>254602</v>
+        <v>241099</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,46 +3150,46 @@
         <v>93</v>
       </c>
       <c r="D33" s="7">
-        <v>84093</v>
+        <v>75830</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H33" s="7">
         <v>111</v>
       </c>
       <c r="I33" s="7">
-        <v>61524</v>
+        <v>55676</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M33" s="7">
         <v>204</v>
       </c>
       <c r="N33" s="7">
-        <v>145617</v>
+        <v>131507</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,46 +3201,46 @@
         <v>29</v>
       </c>
       <c r="D34" s="7">
-        <v>27724</v>
+        <v>25406</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H34" s="7">
         <v>29</v>
       </c>
       <c r="I34" s="7">
-        <v>18637</v>
+        <v>16654</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M34" s="7">
         <v>58</v>
       </c>
       <c r="N34" s="7">
-        <v>46361</v>
+        <v>42060</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,46 +3252,46 @@
         <v>29</v>
       </c>
       <c r="D35" s="7">
-        <v>25724</v>
+        <v>24200</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H35" s="7">
         <v>38</v>
       </c>
       <c r="I35" s="7">
-        <v>22887</v>
+        <v>20984</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M35" s="7">
         <v>67</v>
       </c>
       <c r="N35" s="7">
-        <v>48611</v>
+        <v>45184</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,46 +3303,46 @@
         <v>22</v>
       </c>
       <c r="D36" s="7">
-        <v>19709</v>
+        <v>18440</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>55</v>
+        <v>258</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="H36" s="7">
         <v>18</v>
       </c>
       <c r="I36" s="7">
-        <v>10901</v>
+        <v>10161</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="M36" s="7">
         <v>40</v>
       </c>
       <c r="N36" s="7">
-        <v>30609</v>
+        <v>28601</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,46 +3354,46 @@
         <v>12</v>
       </c>
       <c r="D37" s="7">
-        <v>11501</v>
+        <v>10892</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>12</v>
       </c>
       <c r="I37" s="7">
-        <v>7840</v>
+        <v>7245</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="M37" s="7">
         <v>24</v>
       </c>
       <c r="N37" s="7">
-        <v>19342</v>
+        <v>18136</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,99 +3405,99 @@
         <v>356</v>
       </c>
       <c r="D38" s="7">
-        <v>319321</v>
+        <v>298819</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="7">
         <v>388</v>
       </c>
       <c r="I38" s="7">
-        <v>225820</v>
+        <v>207767</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M38" s="7">
         <v>744</v>
       </c>
       <c r="N38" s="7">
-        <v>545142</v>
+        <v>506586</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" s="7">
-        <v>13043</v>
+        <v>10742</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H39" s="7">
         <v>18</v>
       </c>
       <c r="I39" s="7">
-        <v>9754</v>
+        <v>9136</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M39" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N39" s="7">
-        <v>22796</v>
+        <v>19879</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,46 +3509,46 @@
         <v>8</v>
       </c>
       <c r="D40" s="7">
-        <v>4228</v>
+        <v>3939</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
       </c>
       <c r="I40" s="7">
-        <v>4363</v>
+        <v>4089</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>284</v>
+        <v>36</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M40" s="7">
         <v>18</v>
       </c>
       <c r="N40" s="7">
-        <v>8590</v>
+        <v>8028</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,37 +3569,37 @@
         <v>59</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
       </c>
       <c r="I41" s="7">
-        <v>1013</v>
+        <v>941</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
       </c>
       <c r="N41" s="7">
-        <v>1013</v>
+        <v>941</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,46 +3611,46 @@
         <v>2</v>
       </c>
       <c r="D42" s="7">
-        <v>1763</v>
+        <v>1627</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
       </c>
       <c r="I42" s="7">
-        <v>1761</v>
+        <v>1586</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M42" s="7">
         <v>5</v>
       </c>
       <c r="N42" s="7">
-        <v>3523</v>
+        <v>3213</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>299</v>
+        <v>88</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,46 +3662,46 @@
         <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
       </c>
       <c r="I43" s="7">
-        <v>1054</v>
+        <v>994</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
       </c>
       <c r="N43" s="7">
-        <v>1795</v>
+        <v>1629</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,37 +3722,37 @@
         <v>59</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
       </c>
       <c r="I44" s="7">
-        <v>1086</v>
+        <v>1004</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
       </c>
       <c r="N44" s="7">
-        <v>1086</v>
+        <v>1004</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,102 +3761,100 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D45" s="7">
-        <v>19773</v>
+        <v>16943</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H45" s="7">
         <v>37</v>
       </c>
       <c r="I45" s="7">
-        <v>19030</v>
+        <v>17751</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M45" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N45" s="7">
-        <v>38803</v>
+        <v>34694</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>315</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="7">
-        <v>826</v>
+        <v>2</v>
       </c>
       <c r="D46" s="7">
-        <v>935672</v>
+        <v>1598</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>315</v>
+        <v>63</v>
       </c>
       <c r="H46" s="7">
-        <v>972</v>
-      </c>
-      <c r="I46" s="7">
-        <v>743712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" s="7"/>
       <c r="J46" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>318</v>
       </c>
       <c r="M46" s="7">
-        <v>1798</v>
+        <v>2</v>
       </c>
       <c r="N46" s="7">
-        <v>1679384</v>
+        <v>1598</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>321</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,49 +3863,47 @@
         <v>20</v>
       </c>
       <c r="C47" s="7">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="D47" s="7">
-        <v>425697</v>
+        <v>0</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>323</v>
+        <v>59</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H47" s="7">
-        <v>523</v>
-      </c>
-      <c r="I47" s="7">
-        <v>352091</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="M47" s="7">
-        <v>944</v>
+        <v>0</v>
       </c>
       <c r="N47" s="7">
-        <v>777788</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>328</v>
+        <v>42</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,49 +3912,47 @@
         <v>30</v>
       </c>
       <c r="C48" s="7">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="D48" s="7">
-        <v>152667</v>
+        <v>0</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>331</v>
+        <v>42</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>332</v>
+        <v>59</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="H48" s="7">
-        <v>174</v>
-      </c>
-      <c r="I48" s="7">
-        <v>125405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" s="7"/>
       <c r="J48" s="7" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="M48" s="7">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="N48" s="7">
-        <v>278072</v>
+        <v>0</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>337</v>
+        <v>59</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,49 +3961,47 @@
         <v>40</v>
       </c>
       <c r="C49" s="7">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="D49" s="7">
-        <v>172515</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>340</v>
+        <v>59</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="H49" s="7">
-        <v>184</v>
-      </c>
-      <c r="I49" s="7">
-        <v>135099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" s="7"/>
       <c r="J49" s="7" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="M49" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="N49" s="7">
-        <v>307614</v>
+        <v>0</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>345</v>
+        <v>42</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>346</v>
+        <v>59</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,49 +4010,47 @@
         <v>49</v>
       </c>
       <c r="C50" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D50" s="7">
-        <v>96911</v>
+        <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>349</v>
+        <v>59</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="H50" s="7">
-        <v>130</v>
-      </c>
-      <c r="I50" s="7">
-        <v>102250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" s="7"/>
       <c r="J50" s="7" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="M50" s="7">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>199160</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>353</v>
+        <v>42</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>354</v>
+        <v>59</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,49 +4059,47 @@
         <v>58</v>
       </c>
       <c r="C51" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D51" s="7">
-        <v>53049</v>
+        <v>0</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>356</v>
+        <v>59</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="H51" s="7">
-        <v>54</v>
-      </c>
-      <c r="I51" s="7">
-        <v>44959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" s="7"/>
       <c r="J51" s="7" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>100</v>
+        <v>318</v>
       </c>
       <c r="M51" s="7">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="N51" s="7">
-        <v>98008</v>
+        <v>0</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>360</v>
+        <v>42</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>361</v>
+        <v>59</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,63 +4108,421 @@
         <v>3</v>
       </c>
       <c r="C52" s="7">
+        <v>2</v>
+      </c>
+      <c r="D52" s="7">
+        <v>1598</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M52" s="7">
+        <v>2</v>
+      </c>
+      <c r="N52" s="7">
+        <v>1598</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="7">
+        <v>826</v>
+      </c>
+      <c r="D53" s="7">
+        <v>1109519</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H53" s="7">
+        <v>972</v>
+      </c>
+      <c r="I53" s="7">
+        <v>774064</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M53" s="7">
+        <v>1798</v>
+      </c>
+      <c r="N53" s="7">
+        <v>1883584</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="7">
+        <v>421</v>
+      </c>
+      <c r="D54" s="7">
+        <v>399600</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H54" s="7">
+        <v>523</v>
+      </c>
+      <c r="I54" s="7">
+        <v>318053</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="M54" s="7">
+        <v>944</v>
+      </c>
+      <c r="N54" s="7">
+        <v>717653</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="7">
+        <v>139</v>
+      </c>
+      <c r="D55" s="7">
+        <v>147073</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H55" s="7">
+        <v>174</v>
+      </c>
+      <c r="I55" s="7">
+        <v>113146</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M55" s="7">
+        <v>313</v>
+      </c>
+      <c r="N55" s="7">
+        <v>260219</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="7">
+        <v>152</v>
+      </c>
+      <c r="D56" s="7">
+        <v>166908</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H56" s="7">
+        <v>184</v>
+      </c>
+      <c r="I56" s="7">
+        <v>124273</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M56" s="7">
+        <v>336</v>
+      </c>
+      <c r="N56" s="7">
+        <v>291181</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="7">
+        <v>88</v>
+      </c>
+      <c r="D57" s="7">
+        <v>92429</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H57" s="7">
+        <v>130</v>
+      </c>
+      <c r="I57" s="7">
+        <v>93416</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M57" s="7">
+        <v>218</v>
+      </c>
+      <c r="N57" s="7">
+        <v>185845</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="7">
+        <v>50</v>
+      </c>
+      <c r="D58" s="7">
+        <v>50223</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H58" s="7">
+        <v>54</v>
+      </c>
+      <c r="I58" s="7">
+        <v>39982</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M58" s="7">
+        <v>104</v>
+      </c>
+      <c r="N58" s="7">
+        <v>90205</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
         <v>1676</v>
       </c>
-      <c r="D52" s="7">
-        <v>1836511</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="D59" s="7">
+        <v>1965751</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="7">
         <v>2037</v>
       </c>
-      <c r="I52" s="7">
-        <v>1503516</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="I59" s="7">
+        <v>1462935</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M59" s="7">
         <v>3713</v>
       </c>
-      <c r="N52" s="7">
-        <v>3340027</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>363</v>
+      <c r="N59" s="7">
+        <v>3428686</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
